--- a/excel/Customer.xlsx
+++ b/excel/Customer.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\348685\AppData\Local\Temp\429\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\348685\AppData\Local\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,7 +18,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$A:$B,Sheet1!$1:$1</definedName>
     <definedName name="QBCANSUPPORTUPDATE" localSheetId="0">FALSE</definedName>
     <definedName name="QBCOMPANYFILENAME" localSheetId="0">"I:\Terra Verde Official File NOT TEST.QBW"</definedName>
-    <definedName name="QBENDDATE" localSheetId="0">20191030</definedName>
+    <definedName name="QBENDDATE" localSheetId="0">20191126</definedName>
     <definedName name="QBHEADERSONSCREEN" localSheetId="0">FALSE</definedName>
     <definedName name="QBMETADATASIZE" localSheetId="0">0</definedName>
     <definedName name="QBPRESERVECOLOR" localSheetId="0">TRUE</definedName>
@@ -66,7 +66,7 @@
     <definedName name="QBREPORTSUBCOLAXIS" localSheetId="0">0</definedName>
     <definedName name="QBREPORTTYPE" localSheetId="0">417</definedName>
     <definedName name="QBROWHEADERS" localSheetId="0">2</definedName>
-    <definedName name="QBSTARTDATE" localSheetId="0">20191030</definedName>
+    <definedName name="QBSTARTDATE" localSheetId="0">20191126</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="198">
   <si>
     <t>Name</t>
   </si>
@@ -101,6 +101,9 @@
     <t>A C Ramirez Floor Coverings</t>
   </si>
   <si>
+    <t>A Plus Flooring</t>
+  </si>
+  <si>
     <t>Adair's Fine Floors ETC LLC</t>
   </si>
   <si>
@@ -110,10 +113,13 @@
     <t>Albertson's Abbey Carpet and Floor Inc</t>
   </si>
   <si>
+    <t>All Surface Flooring</t>
+  </si>
+  <si>
     <t>All Wood Floor Service</t>
   </si>
   <si>
-    <t>Allstate Flooring Distributors</t>
+    <t>Allied Construction Services</t>
   </si>
   <si>
     <t>Alpuertos Flooring</t>
@@ -122,12 +128,18 @@
     <t>Amarillo Floor Co</t>
   </si>
   <si>
+    <t>Americas Flooring Store Inc</t>
+  </si>
+  <si>
     <t>Angello's Flooring Coverings</t>
   </si>
   <si>
     <t>Arizona Hardwood Floor Supply</t>
   </si>
   <si>
+    <t>Artisan Floor Supply</t>
+  </si>
+  <si>
     <t>Austin Fine Floors Inc</t>
   </si>
   <si>
@@ -140,6 +152,9 @@
     <t>BA Flooring &amp; Design LLC</t>
   </si>
   <si>
+    <t>Bay View Flooring</t>
+  </si>
+  <si>
     <t>Bellus Flooring LLC</t>
   </si>
   <si>
@@ -164,6 +179,12 @@
     <t>Buda's Flooring Store, LLC</t>
   </si>
   <si>
+    <t>Builders First Source</t>
+  </si>
+  <si>
+    <t>Builders Flooring Inc</t>
+  </si>
+  <si>
     <t>Business Flooring Specialists, L.P</t>
   </si>
   <si>
@@ -179,9 +200,24 @@
     <t>Carlson's Carpet Inc</t>
   </si>
   <si>
+    <t>Carpet Deluxe Inc dba Metro Cpt &amp; Floors</t>
+  </si>
+  <si>
     <t>Carpet Express</t>
   </si>
   <si>
+    <t>Carpet Factory Outlet</t>
+  </si>
+  <si>
+    <t>Carpet Fair Inc-DBA Flooring America</t>
+  </si>
+  <si>
+    <t>Carpet One</t>
+  </si>
+  <si>
+    <t>Carpet One Inc</t>
+  </si>
+  <si>
     <t>Carpet One Of San Ramon</t>
   </si>
   <si>
@@ -206,6 +242,18 @@
     <t>Coastal Wood Flooring &amp; Supplies,Inc</t>
   </si>
   <si>
+    <t>Color World Inc,dba Dave Grigg'S F. Ameri</t>
+  </si>
+  <si>
+    <t>Columbia Rug Carpet One Floor</t>
+  </si>
+  <si>
+    <t>Columbus Carpet &amp; Linoleum</t>
+  </si>
+  <si>
+    <t>Comfort Carpets Inc</t>
+  </si>
+  <si>
     <t>Concho Carpet One</t>
   </si>
   <si>
@@ -215,18 +263,45 @@
     <t>Cover - Rite Inc</t>
   </si>
   <si>
+    <t>Crestway Klassic Flooring Inc</t>
+  </si>
+  <si>
     <t>CW Floors &amp; Lighting</t>
   </si>
   <si>
     <t>Danville Hardwood Company Inc</t>
   </si>
   <si>
+    <t>Decker Design Inc</t>
+  </si>
+  <si>
     <t>Deer Creek Granite, LLC</t>
   </si>
   <si>
+    <t>Discount Floor Center</t>
+  </si>
+  <si>
+    <t>Donn M. Koonce</t>
+  </si>
+  <si>
+    <t>Douglas Floor Covering</t>
+  </si>
+  <si>
+    <t>Drexel Building Supply</t>
+  </si>
+  <si>
+    <t>Dugan's Paint and Flooring</t>
+  </si>
+  <si>
     <t>Eagle Flooring Outlet Inc</t>
   </si>
   <si>
+    <t>Eastwood Holdings dba Floors For Less</t>
+  </si>
+  <si>
+    <t>Ellegant Home Design</t>
+  </si>
+  <si>
     <t>Encore Surfaces</t>
   </si>
   <si>
@@ -260,6 +335,9 @@
     <t>Floor Up LLC</t>
   </si>
   <si>
+    <t>Flooring America</t>
+  </si>
+  <si>
     <t>Flooring Gallery</t>
   </si>
   <si>
@@ -269,6 +347,12 @@
     <t>Flooring Outlet and More</t>
   </si>
   <si>
+    <t>FloorQuest LLC</t>
+  </si>
+  <si>
+    <t>Floortech Of Racine Inc</t>
+  </si>
+  <si>
     <t>Freeway Carpets</t>
   </si>
   <si>
@@ -290,28 +374,46 @@
     <t>Grigsby's Carpet &amp; Tile</t>
   </si>
   <si>
+    <t>H J Martin &amp; Son Inc</t>
+  </si>
+  <si>
     <t>Hardwood Flooring Services</t>
   </si>
   <si>
     <t>Hill Country Flooring</t>
   </si>
   <si>
+    <t>Holdinghausen Ent. dba Haus of Flooring</t>
+  </si>
+  <si>
     <t>Home Elements Supply</t>
   </si>
   <si>
+    <t>Hunt's Flooring</t>
+  </si>
+  <si>
     <t>ICC Floors</t>
   </si>
   <si>
+    <t>Ideal Custom Flooring LLC</t>
+  </si>
+  <si>
     <t>Illinois Valley Hardwoods Inc</t>
   </si>
   <si>
     <t>Inspired Floors</t>
   </si>
   <si>
+    <t>Iskalis Interiors Inc</t>
+  </si>
+  <si>
     <t>J &amp; R Sales Inc dba CRT Flooring</t>
   </si>
   <si>
-    <t>J J Haines &amp; Company, Inc</t>
+    <t>J. Sanders Flooring</t>
+  </si>
+  <si>
+    <t>James A Andrews Inc dba Flooring Express</t>
   </si>
   <si>
     <t>Jim Graham Flooring &amp; Installations</t>
@@ -326,6 +428,12 @@
     <t>KD Floors LLC</t>
   </si>
   <si>
+    <t>Kelly's Flooring</t>
+  </si>
+  <si>
+    <t>Kennys Floor  Covering</t>
+  </si>
+  <si>
     <t>Keystone Carpets Inc</t>
   </si>
   <si>
@@ -335,51 +443,72 @@
     <t>Landers Premier Flooring</t>
   </si>
   <si>
+    <t>Las Hardwoods, Inc</t>
+  </si>
+  <si>
+    <t>Lombardi Interiors Inc</t>
+  </si>
+  <si>
     <t>Lone Star Floors Inc</t>
   </si>
   <si>
+    <t>Lonnie's Carpet Max</t>
+  </si>
+  <si>
     <t>Lowrey's Flooring Services LLC</t>
   </si>
   <si>
+    <t>Luna Floor Gallery</t>
+  </si>
+  <si>
     <t>Lyn- Tile, Inc</t>
   </si>
   <si>
+    <t>Macco's Floor Covering Center</t>
+  </si>
+  <si>
     <t>Mark Evarts Flooring</t>
   </si>
   <si>
     <t>Masho Associates</t>
   </si>
   <si>
+    <t>McCartney Carpet Inc</t>
+  </si>
+  <si>
     <t>Metro Wholesale Flooring</t>
   </si>
   <si>
+    <t>Michael's Carpet &amp; Linoleum Inc</t>
+  </si>
+  <si>
     <t>Millennium Flooring Distributors</t>
   </si>
   <si>
     <t>Modern Tile &amp; Carpet Inc</t>
   </si>
   <si>
+    <t>Niko's Import- Export LLC</t>
+  </si>
+  <si>
     <t>Noble Floors</t>
   </si>
   <si>
     <t>Northwest Int. dba Color Interiors</t>
   </si>
   <si>
-    <t>NRF Distributors Inc</t>
-  </si>
-  <si>
     <t>O'Krent Floor Covering Corp</t>
   </si>
   <si>
-    <t>Paul Stanton</t>
-  </si>
-  <si>
     <t>Petra Flooring &amp; Blinds</t>
   </si>
   <si>
     <t>Premiere Floors</t>
   </si>
   <si>
+    <t>Premiere Hardwoods LLC</t>
+  </si>
+  <si>
     <t>Prescott Flooring Brokers</t>
   </si>
   <si>
@@ -389,12 +518,18 @@
     <t>ProSource Of California</t>
   </si>
   <si>
+    <t>ProSource of South Bend</t>
+  </si>
+  <si>
     <t>ProSource Of Tulsa LLC</t>
   </si>
   <si>
     <t>ProSource Tarrant, Inc</t>
   </si>
   <si>
+    <t>Randy's Flooring</t>
+  </si>
+  <si>
     <t>Ray Inge Company</t>
   </si>
   <si>
@@ -407,12 +542,24 @@
     <t>Reinhardt Peters Hardwood Floors</t>
   </si>
   <si>
+    <t>Ridgefield Industries Co,LLC</t>
+  </si>
+  <si>
+    <t>Robinsons Floor Covering Center</t>
+  </si>
+  <si>
+    <t>Royal Flooring</t>
+  </si>
+  <si>
     <t>RPJP LLC dba Peoples Signature Flooring</t>
   </si>
   <si>
     <t>Rubio Monocoat</t>
   </si>
   <si>
+    <t>Ryans Flooring Sales &amp; Service</t>
+  </si>
+  <si>
     <t>Schroeder Carpet Associates</t>
   </si>
   <si>
@@ -434,18 +581,42 @@
     <t>SPS Designs</t>
   </si>
   <si>
+    <t>St Charles Decorating Center</t>
+  </si>
+  <si>
     <t>Stylish Interiors Inc</t>
   </si>
   <si>
     <t>Superior Covering &amp; Construction Inc</t>
   </si>
   <si>
-    <t>SUPERIOR FLOOR &amp; CABINET DESIGNS</t>
+    <t>Superior Floor &amp; Cabinet Designs</t>
+  </si>
+  <si>
+    <t>Sussex Flooring</t>
+  </si>
+  <si>
+    <t>Sutton Country Carpets</t>
   </si>
   <si>
     <t>Taylor Designer Floors Inc</t>
   </si>
   <si>
+    <t>Taylor Made Floors Inc</t>
+  </si>
+  <si>
+    <t>Tazewell Floor Covering Inc</t>
+  </si>
+  <si>
+    <t>Testeapi</t>
+  </si>
+  <si>
+    <t>The Arizona Tile Co.</t>
+  </si>
+  <si>
+    <t>The Flooring Guys Ltd</t>
+  </si>
+  <si>
     <t>The Jenkins Interior Design Group</t>
   </si>
   <si>
@@ -455,25 +626,34 @@
     <t>Tish Flooring Inc</t>
   </si>
   <si>
+    <t>Top Quality Flooring Inc</t>
+  </si>
+  <si>
     <t>Total Pro Flooring LLC</t>
   </si>
   <si>
-    <t>TRI-WEST,LTD</t>
-  </si>
-  <si>
     <t>Tukasa Creations Inc</t>
   </si>
   <si>
+    <t>Tumac Lumber Co. Inc.</t>
+  </si>
+  <si>
+    <t>U Save Flooring DBA Flooring America</t>
+  </si>
+  <si>
     <t>Vaughn's Floor Covering dba Town Square F</t>
   </si>
   <si>
+    <t>Vonderheide Floor Covering Co</t>
+  </si>
+  <si>
     <t>Wagner Ineriors Ltd - DBA Allegiance Floo</t>
   </si>
   <si>
     <t>Wayne's Carpet &amp; Oak Flooring</t>
   </si>
   <si>
-    <t>Wheeler Floors Total Flooring Systems</t>
+    <t>Wholesale Flooring dba Prosource Madison</t>
   </si>
   <si>
     <t>WJF Ent. dba Signature Floors &amp; Int.</t>
@@ -492,9 +672,6 @@
   </si>
   <si>
     <t>RETAILERS - REGION 2</t>
-  </si>
-  <si>
-    <t>DISTRIBUTORS</t>
   </si>
 </sst>
 </file>
@@ -852,7 +1029,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K263"/>
+  <dimension ref="A1:K383"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
@@ -917,11 +1094,11 @@
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="5">
@@ -953,11 +1130,11 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>136</v>
+        <v>196</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>136</v>
+        <v>196</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="5">
@@ -989,11 +1166,11 @@
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>137</v>
+        <v>197</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>137</v>
+        <v>197</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="5">
@@ -1025,11 +1202,11 @@
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="5">
@@ -1061,11 +1238,11 @@
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="5">
@@ -1097,11 +1274,11 @@
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>137</v>
+        <v>195</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
-        <v>137</v>
+        <v>195</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="5">
@@ -1133,11 +1310,11 @@
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>136</v>
+        <v>197</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4" t="s">
-        <v>136</v>
+        <v>197</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="5">
@@ -1169,11 +1346,11 @@
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
-        <v>138</v>
+        <v>196</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4" t="s">
-        <v>138</v>
+        <v>196</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="5">
@@ -1181,7 +1358,7 @@
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="5">
-        <v>44196</v>
+        <v>44195</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1205,11 +1382,11 @@
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
-        <v>137</v>
+        <v>196</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4" t="s">
-        <v>137</v>
+        <v>196</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="5">
@@ -1241,11 +1418,11 @@
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="5">
@@ -1277,11 +1454,11 @@
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4" t="s">
-        <v>137</v>
+        <v>197</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4" t="s">
-        <v>137</v>
+        <v>197</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="5">
@@ -1313,11 +1490,11 @@
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4" t="s">
-        <v>137</v>
+        <v>195</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4" t="s">
-        <v>137</v>
+        <v>195</v>
       </c>
       <c r="H25" s="4"/>
       <c r="I25" s="5">
@@ -1349,11 +1526,11 @@
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="5">
@@ -1385,11 +1562,11 @@
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4" t="s">
-        <v>137</v>
+        <v>197</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4" t="s">
-        <v>137</v>
+        <v>197</v>
       </c>
       <c r="H29" s="4"/>
       <c r="I29" s="5">
@@ -1421,11 +1598,11 @@
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4" t="s">
-        <v>137</v>
+        <v>197</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4" t="s">
-        <v>137</v>
+        <v>197</v>
       </c>
       <c r="H31" s="4"/>
       <c r="I31" s="5">
@@ -1457,11 +1634,11 @@
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="H33" s="4"/>
       <c r="I33" s="5">
@@ -1493,11 +1670,11 @@
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4" t="s">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4" t="s">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="5">
@@ -1529,11 +1706,11 @@
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4" t="s">
-        <v>137</v>
+        <v>197</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4" t="s">
-        <v>137</v>
+        <v>197</v>
       </c>
       <c r="H37" s="4"/>
       <c r="I37" s="5">
@@ -1565,11 +1742,11 @@
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4" t="s">
-        <v>135</v>
+        <v>197</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4" t="s">
-        <v>135</v>
+        <v>197</v>
       </c>
       <c r="H39" s="4"/>
       <c r="I39" s="5">
@@ -1601,11 +1778,11 @@
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4" t="s">
-        <v>137</v>
+        <v>195</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4" t="s">
-        <v>137</v>
+        <v>195</v>
       </c>
       <c r="H41" s="4"/>
       <c r="I41" s="5">
@@ -1637,11 +1814,11 @@
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
-        <v>137</v>
+        <v>196</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4" t="s">
-        <v>137</v>
+        <v>196</v>
       </c>
       <c r="H43" s="4"/>
       <c r="I43" s="5">
@@ -1673,11 +1850,11 @@
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4" t="s">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="H45" s="4"/>
       <c r="I45" s="5">
@@ -1709,11 +1886,11 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4" t="s">
-        <v>137</v>
+        <v>197</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="4" t="s">
-        <v>137</v>
+        <v>197</v>
       </c>
       <c r="H47" s="4"/>
       <c r="I47" s="5">
@@ -1745,11 +1922,11 @@
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4" t="s">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="4" t="s">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="H49" s="4"/>
       <c r="I49" s="5">
@@ -1781,11 +1958,11 @@
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4" t="s">
-        <v>135</v>
+        <v>197</v>
       </c>
       <c r="F51" s="4"/>
       <c r="G51" s="4" t="s">
-        <v>135</v>
+        <v>197</v>
       </c>
       <c r="H51" s="4"/>
       <c r="I51" s="5">
@@ -1817,11 +1994,11 @@
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4" t="s">
-        <v>135</v>
+        <v>197</v>
       </c>
       <c r="F53" s="4"/>
       <c r="G53" s="4" t="s">
-        <v>135</v>
+        <v>197</v>
       </c>
       <c r="H53" s="4"/>
       <c r="I53" s="5">
@@ -1853,11 +2030,11 @@
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4" t="s">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="F55" s="4"/>
       <c r="G55" s="4" t="s">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="H55" s="4"/>
       <c r="I55" s="5">
@@ -1889,11 +2066,11 @@
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4" t="s">
-        <v>137</v>
+        <v>197</v>
       </c>
       <c r="F57" s="4"/>
       <c r="G57" s="4" t="s">
-        <v>137</v>
+        <v>197</v>
       </c>
       <c r="H57" s="4"/>
       <c r="I57" s="5">
@@ -1925,11 +2102,11 @@
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4" t="s">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="F59" s="4"/>
       <c r="G59" s="4" t="s">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="H59" s="4"/>
       <c r="I59" s="5">
@@ -1961,11 +2138,11 @@
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="F61" s="4"/>
       <c r="G61" s="4" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="H61" s="4"/>
       <c r="I61" s="5">
@@ -1997,11 +2174,11 @@
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4" t="s">
-        <v>137</v>
+        <v>196</v>
       </c>
       <c r="F63" s="4"/>
       <c r="G63" s="4" t="s">
-        <v>137</v>
+        <v>196</v>
       </c>
       <c r="H63" s="4"/>
       <c r="I63" s="5">
@@ -2033,11 +2210,11 @@
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4" t="s">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="F65" s="4"/>
       <c r="G65" s="4" t="s">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="H65" s="4"/>
       <c r="I65" s="5">
@@ -2069,11 +2246,11 @@
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4" t="s">
-        <v>137</v>
+        <v>195</v>
       </c>
       <c r="F67" s="4"/>
       <c r="G67" s="4" t="s">
-        <v>137</v>
+        <v>195</v>
       </c>
       <c r="H67" s="4"/>
       <c r="I67" s="5">
@@ -2105,11 +2282,11 @@
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4" t="s">
-        <v>137</v>
+        <v>195</v>
       </c>
       <c r="F69" s="4"/>
       <c r="G69" s="4" t="s">
-        <v>137</v>
+        <v>195</v>
       </c>
       <c r="H69" s="4"/>
       <c r="I69" s="5">
@@ -2141,11 +2318,11 @@
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4" t="s">
-        <v>135</v>
+        <v>197</v>
       </c>
       <c r="F71" s="4"/>
       <c r="G71" s="4" t="s">
-        <v>135</v>
+        <v>197</v>
       </c>
       <c r="H71" s="4"/>
       <c r="I71" s="5">
@@ -2177,11 +2354,11 @@
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4" t="s">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="F73" s="4"/>
       <c r="G73" s="4" t="s">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="H73" s="4"/>
       <c r="I73" s="5">
@@ -2213,11 +2390,11 @@
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="F75" s="4"/>
       <c r="G75" s="4" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="H75" s="4"/>
       <c r="I75" s="5">
@@ -2249,11 +2426,11 @@
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4" t="s">
-        <v>137</v>
+        <v>195</v>
       </c>
       <c r="F77" s="4"/>
       <c r="G77" s="4" t="s">
-        <v>137</v>
+        <v>195</v>
       </c>
       <c r="H77" s="4"/>
       <c r="I77" s="5">
@@ -2285,11 +2462,11 @@
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="F79" s="4"/>
       <c r="G79" s="4" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="H79" s="4"/>
       <c r="I79" s="5">
@@ -2321,11 +2498,11 @@
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4" t="s">
-        <v>137</v>
+        <v>196</v>
       </c>
       <c r="F81" s="4"/>
       <c r="G81" s="4" t="s">
-        <v>137</v>
+        <v>196</v>
       </c>
       <c r="H81" s="4"/>
       <c r="I81" s="5">
@@ -2357,11 +2534,11 @@
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="4" t="s">
-        <v>136</v>
+        <v>196</v>
       </c>
       <c r="F83" s="4"/>
       <c r="G83" s="4" t="s">
-        <v>136</v>
+        <v>196</v>
       </c>
       <c r="H83" s="4"/>
       <c r="I83" s="5">
@@ -2393,11 +2570,11 @@
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="4" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="F85" s="4"/>
       <c r="G85" s="4" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="H85" s="4"/>
       <c r="I85" s="5">
@@ -2429,11 +2606,11 @@
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4" t="s">
-        <v>137</v>
+        <v>197</v>
       </c>
       <c r="F87" s="4"/>
       <c r="G87" s="4" t="s">
-        <v>137</v>
+        <v>197</v>
       </c>
       <c r="H87" s="4"/>
       <c r="I87" s="5">
@@ -2465,11 +2642,11 @@
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4" t="s">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="F89" s="4"/>
       <c r="G89" s="4" t="s">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="H89" s="4"/>
       <c r="I89" s="5">
@@ -2501,11 +2678,11 @@
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4" t="s">
-        <v>136</v>
+        <v>197</v>
       </c>
       <c r="F91" s="4"/>
       <c r="G91" s="4" t="s">
-        <v>136</v>
+        <v>197</v>
       </c>
       <c r="H91" s="4"/>
       <c r="I91" s="5">
@@ -2537,11 +2714,11 @@
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4" t="s">
-        <v>137</v>
+        <v>197</v>
       </c>
       <c r="F93" s="4"/>
       <c r="G93" s="4" t="s">
-        <v>137</v>
+        <v>197</v>
       </c>
       <c r="H93" s="4"/>
       <c r="I93" s="5">
@@ -2573,11 +2750,11 @@
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="4" t="s">
-        <v>137</v>
+        <v>195</v>
       </c>
       <c r="F95" s="4"/>
       <c r="G95" s="4" t="s">
-        <v>137</v>
+        <v>195</v>
       </c>
       <c r="H95" s="4"/>
       <c r="I95" s="5">
@@ -2609,11 +2786,11 @@
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="4" t="s">
-        <v>137</v>
+        <v>195</v>
       </c>
       <c r="F97" s="4"/>
       <c r="G97" s="4" t="s">
-        <v>137</v>
+        <v>195</v>
       </c>
       <c r="H97" s="4"/>
       <c r="I97" s="5">
@@ -2645,11 +2822,11 @@
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="4" t="s">
-        <v>137</v>
+        <v>195</v>
       </c>
       <c r="F99" s="4"/>
       <c r="G99" s="4" t="s">
-        <v>137</v>
+        <v>195</v>
       </c>
       <c r="H99" s="4"/>
       <c r="I99" s="5">
@@ -2681,11 +2858,11 @@
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4" t="s">
-        <v>137</v>
+        <v>197</v>
       </c>
       <c r="F101" s="4"/>
       <c r="G101" s="4" t="s">
-        <v>137</v>
+        <v>197</v>
       </c>
       <c r="H101" s="4"/>
       <c r="I101" s="5">
@@ -2717,11 +2894,11 @@
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="F103" s="4"/>
       <c r="G103" s="4" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="H103" s="4"/>
       <c r="I103" s="5">
@@ -2753,11 +2930,11 @@
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="F105" s="4"/>
       <c r="G105" s="4" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="H105" s="4"/>
       <c r="I105" s="5">
@@ -2789,11 +2966,11 @@
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="F107" s="4"/>
       <c r="G107" s="4" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="H107" s="4"/>
       <c r="I107" s="5">
@@ -2825,11 +3002,11 @@
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4" t="s">
-        <v>137</v>
+        <v>196</v>
       </c>
       <c r="F109" s="4"/>
       <c r="G109" s="4" t="s">
-        <v>137</v>
+        <v>196</v>
       </c>
       <c r="H109" s="4"/>
       <c r="I109" s="5">
@@ -2861,11 +3038,11 @@
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4" t="s">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="F111" s="4"/>
       <c r="G111" s="4" t="s">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="H111" s="4"/>
       <c r="I111" s="5">
@@ -2897,11 +3074,11 @@
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4" t="s">
-        <v>135</v>
+        <v>197</v>
       </c>
       <c r="F113" s="4"/>
       <c r="G113" s="4" t="s">
-        <v>135</v>
+        <v>197</v>
       </c>
       <c r="H113" s="4"/>
       <c r="I113" s="5">
@@ -2933,11 +3110,11 @@
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4" t="s">
-        <v>137</v>
+        <v>196</v>
       </c>
       <c r="F115" s="4"/>
       <c r="G115" s="4" t="s">
-        <v>137</v>
+        <v>196</v>
       </c>
       <c r="H115" s="4"/>
       <c r="I115" s="5">
@@ -2969,11 +3146,11 @@
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4" t="s">
-        <v>137</v>
+        <v>196</v>
       </c>
       <c r="F117" s="4"/>
       <c r="G117" s="4" t="s">
-        <v>137</v>
+        <v>196</v>
       </c>
       <c r="H117" s="4"/>
       <c r="I117" s="5">
@@ -3005,11 +3182,11 @@
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4" t="s">
-        <v>137</v>
+        <v>195</v>
       </c>
       <c r="F119" s="4"/>
       <c r="G119" s="4" t="s">
-        <v>137</v>
+        <v>195</v>
       </c>
       <c r="H119" s="4"/>
       <c r="I119" s="5">
@@ -3041,11 +3218,11 @@
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="4" t="s">
-        <v>135</v>
+        <v>197</v>
       </c>
       <c r="F121" s="4"/>
       <c r="G121" s="4" t="s">
-        <v>135</v>
+        <v>197</v>
       </c>
       <c r="H121" s="4"/>
       <c r="I121" s="5">
@@ -3077,11 +3254,11 @@
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="F123" s="4"/>
       <c r="G123" s="4" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="H123" s="4"/>
       <c r="I123" s="5">
@@ -3113,11 +3290,11 @@
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
       <c r="E125" s="4" t="s">
-        <v>137</v>
+        <v>195</v>
       </c>
       <c r="F125" s="4"/>
       <c r="G125" s="4" t="s">
-        <v>137</v>
+        <v>195</v>
       </c>
       <c r="H125" s="4"/>
       <c r="I125" s="5">
@@ -3149,11 +3326,11 @@
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="4" t="s">
-        <v>137</v>
+        <v>196</v>
       </c>
       <c r="F127" s="4"/>
       <c r="G127" s="4" t="s">
-        <v>137</v>
+        <v>196</v>
       </c>
       <c r="H127" s="4"/>
       <c r="I127" s="5">
@@ -3185,11 +3362,11 @@
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="4" t="s">
-        <v>137</v>
+        <v>196</v>
       </c>
       <c r="F129" s="4"/>
       <c r="G129" s="4" t="s">
-        <v>137</v>
+        <v>196</v>
       </c>
       <c r="H129" s="4"/>
       <c r="I129" s="5">
@@ -3221,11 +3398,11 @@
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="4" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="F131" s="4"/>
       <c r="G131" s="4" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="H131" s="4"/>
       <c r="I131" s="5">
@@ -3257,11 +3434,11 @@
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="4" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="F133" s="4"/>
       <c r="G133" s="4" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="H133" s="4"/>
       <c r="I133" s="5">
@@ -3293,11 +3470,11 @@
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
       <c r="E135" s="4" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="F135" s="4"/>
       <c r="G135" s="4" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="H135" s="4"/>
       <c r="I135" s="5">
@@ -3329,11 +3506,11 @@
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
       <c r="E137" s="4" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="F137" s="4"/>
       <c r="G137" s="4" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="H137" s="4"/>
       <c r="I137" s="5">
@@ -3365,11 +3542,11 @@
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="4" t="s">
-        <v>137</v>
+        <v>196</v>
       </c>
       <c r="F139" s="4"/>
       <c r="G139" s="4" t="s">
-        <v>137</v>
+        <v>196</v>
       </c>
       <c r="H139" s="4"/>
       <c r="I139" s="5">
@@ -3401,11 +3578,11 @@
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="4" t="s">
-        <v>136</v>
+        <v>196</v>
       </c>
       <c r="F141" s="4"/>
       <c r="G141" s="4" t="s">
-        <v>136</v>
+        <v>196</v>
       </c>
       <c r="H141" s="4"/>
       <c r="I141" s="5">
@@ -3437,11 +3614,11 @@
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
       <c r="E143" s="4" t="s">
-        <v>136</v>
+        <v>197</v>
       </c>
       <c r="F143" s="4"/>
       <c r="G143" s="4" t="s">
-        <v>136</v>
+        <v>197</v>
       </c>
       <c r="H143" s="4"/>
       <c r="I143" s="5">
@@ -3473,11 +3650,11 @@
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
       <c r="E145" s="4" t="s">
-        <v>135</v>
+        <v>197</v>
       </c>
       <c r="F145" s="4"/>
       <c r="G145" s="4" t="s">
-        <v>135</v>
+        <v>197</v>
       </c>
       <c r="H145" s="4"/>
       <c r="I145" s="5">
@@ -3509,11 +3686,11 @@
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
       <c r="E147" s="4" t="s">
-        <v>135</v>
+        <v>197</v>
       </c>
       <c r="F147" s="4"/>
       <c r="G147" s="4" t="s">
-        <v>135</v>
+        <v>197</v>
       </c>
       <c r="H147" s="4"/>
       <c r="I147" s="5">
@@ -3545,11 +3722,11 @@
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
       <c r="E149" s="4" t="s">
-        <v>138</v>
+        <v>197</v>
       </c>
       <c r="F149" s="4"/>
       <c r="G149" s="4" t="s">
-        <v>138</v>
+        <v>197</v>
       </c>
       <c r="H149" s="4"/>
       <c r="I149" s="5">
@@ -3557,7 +3734,7 @@
       </c>
       <c r="J149" s="4"/>
       <c r="K149" s="5">
-        <v>44196</v>
+        <v>44195</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
@@ -3581,11 +3758,11 @@
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
       <c r="E151" s="4" t="s">
-        <v>137</v>
+        <v>197</v>
       </c>
       <c r="F151" s="4"/>
       <c r="G151" s="4" t="s">
-        <v>137</v>
+        <v>197</v>
       </c>
       <c r="H151" s="4"/>
       <c r="I151" s="5">
@@ -3617,11 +3794,11 @@
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
       <c r="E153" s="4" t="s">
-        <v>137</v>
+        <v>195</v>
       </c>
       <c r="F153" s="4"/>
       <c r="G153" s="4" t="s">
-        <v>137</v>
+        <v>195</v>
       </c>
       <c r="H153" s="4"/>
       <c r="I153" s="5">
@@ -3653,11 +3830,11 @@
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
       <c r="E155" s="4" t="s">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="F155" s="4"/>
       <c r="G155" s="4" t="s">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="H155" s="4"/>
       <c r="I155" s="5">
@@ -3689,11 +3866,11 @@
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
       <c r="E157" s="4" t="s">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="F157" s="4"/>
       <c r="G157" s="4" t="s">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="H157" s="4"/>
       <c r="I157" s="5">
@@ -3725,11 +3902,11 @@
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
       <c r="E159" s="4" t="s">
-        <v>135</v>
+        <v>197</v>
       </c>
       <c r="F159" s="4"/>
       <c r="G159" s="4" t="s">
-        <v>135</v>
+        <v>197</v>
       </c>
       <c r="H159" s="4"/>
       <c r="I159" s="5">
@@ -3761,11 +3938,11 @@
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
       <c r="E161" s="4" t="s">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="F161" s="4"/>
       <c r="G161" s="4" t="s">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="H161" s="4"/>
       <c r="I161" s="5">
@@ -3797,11 +3974,11 @@
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
       <c r="E163" s="4" t="s">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="F163" s="4"/>
       <c r="G163" s="4" t="s">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="H163" s="4"/>
       <c r="I163" s="5">
@@ -3833,11 +4010,11 @@
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
       <c r="E165" s="4" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="F165" s="4"/>
       <c r="G165" s="4" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="H165" s="4"/>
       <c r="I165" s="5">
@@ -3869,11 +4046,11 @@
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
       <c r="E167" s="4" t="s">
-        <v>135</v>
+        <v>197</v>
       </c>
       <c r="F167" s="4"/>
       <c r="G167" s="4" t="s">
-        <v>135</v>
+        <v>197</v>
       </c>
       <c r="H167" s="4"/>
       <c r="I167" s="5">
@@ -3905,11 +4082,11 @@
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
       <c r="E169" s="4" t="s">
-        <v>135</v>
+        <v>197</v>
       </c>
       <c r="F169" s="4"/>
       <c r="G169" s="4" t="s">
-        <v>135</v>
+        <v>197</v>
       </c>
       <c r="H169" s="4"/>
       <c r="I169" s="5">
@@ -3941,11 +4118,11 @@
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
       <c r="E171" s="4" t="s">
-        <v>137</v>
+        <v>197</v>
       </c>
       <c r="F171" s="4"/>
       <c r="G171" s="4" t="s">
-        <v>137</v>
+        <v>197</v>
       </c>
       <c r="H171" s="4"/>
       <c r="I171" s="5">
@@ -3977,11 +4154,11 @@
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
       <c r="E173" s="4" t="s">
-        <v>137</v>
+        <v>196</v>
       </c>
       <c r="F173" s="4"/>
       <c r="G173" s="4" t="s">
-        <v>137</v>
+        <v>196</v>
       </c>
       <c r="H173" s="4"/>
       <c r="I173" s="5">
@@ -4013,11 +4190,11 @@
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
       <c r="E175" s="4" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="F175" s="4"/>
       <c r="G175" s="4" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="H175" s="4"/>
       <c r="I175" s="5">
@@ -4049,11 +4226,11 @@
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
       <c r="E177" s="4" t="s">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="F177" s="4"/>
       <c r="G177" s="4" t="s">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="H177" s="4"/>
       <c r="I177" s="5">
@@ -4085,11 +4262,11 @@
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
       <c r="E179" s="4" t="s">
-        <v>136</v>
+        <v>195</v>
       </c>
       <c r="F179" s="4"/>
       <c r="G179" s="4" t="s">
-        <v>136</v>
+        <v>195</v>
       </c>
       <c r="H179" s="4"/>
       <c r="I179" s="5">
@@ -4121,11 +4298,11 @@
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
       <c r="E181" s="4" t="s">
-        <v>137</v>
+        <v>197</v>
       </c>
       <c r="F181" s="4"/>
       <c r="G181" s="4" t="s">
-        <v>137</v>
+        <v>197</v>
       </c>
       <c r="H181" s="4"/>
       <c r="I181" s="5">
@@ -4157,11 +4334,11 @@
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
       <c r="E183" s="4" t="s">
-        <v>135</v>
+        <v>197</v>
       </c>
       <c r="F183" s="4"/>
       <c r="G183" s="4" t="s">
-        <v>135</v>
+        <v>197</v>
       </c>
       <c r="H183" s="4"/>
       <c r="I183" s="5">
@@ -4193,11 +4370,11 @@
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
       <c r="E185" s="4" t="s">
-        <v>138</v>
+        <v>197</v>
       </c>
       <c r="F185" s="4"/>
       <c r="G185" s="4" t="s">
-        <v>138</v>
+        <v>197</v>
       </c>
       <c r="H185" s="4"/>
       <c r="I185" s="5">
@@ -4205,7 +4382,7 @@
       </c>
       <c r="J185" s="4"/>
       <c r="K185" s="5">
-        <v>44196</v>
+        <v>44195</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
@@ -4229,11 +4406,11 @@
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
       <c r="E187" s="4" t="s">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="F187" s="4"/>
       <c r="G187" s="4" t="s">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="H187" s="4"/>
       <c r="I187" s="5">
@@ -4265,11 +4442,11 @@
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
       <c r="E189" s="4" t="s">
-        <v>137</v>
+        <v>195</v>
       </c>
       <c r="F189" s="4"/>
       <c r="G189" s="4" t="s">
-        <v>137</v>
+        <v>195</v>
       </c>
       <c r="H189" s="4"/>
       <c r="I189" s="5">
@@ -4301,11 +4478,11 @@
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
       <c r="E191" s="4" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="F191" s="4"/>
       <c r="G191" s="4" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="H191" s="4"/>
       <c r="I191" s="5">
@@ -4337,11 +4514,11 @@
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
       <c r="E193" s="4" t="s">
-        <v>137</v>
+        <v>195</v>
       </c>
       <c r="F193" s="4"/>
       <c r="G193" s="4" t="s">
-        <v>137</v>
+        <v>195</v>
       </c>
       <c r="H193" s="4"/>
       <c r="I193" s="5">
@@ -4373,11 +4550,11 @@
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
       <c r="E195" s="4" t="s">
-        <v>137</v>
+        <v>195</v>
       </c>
       <c r="F195" s="4"/>
       <c r="G195" s="4" t="s">
-        <v>137</v>
+        <v>195</v>
       </c>
       <c r="H195" s="4"/>
       <c r="I195" s="5">
@@ -4409,11 +4586,11 @@
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
       <c r="E197" s="4" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="F197" s="4"/>
       <c r="G197" s="4" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="H197" s="4"/>
       <c r="I197" s="5">
@@ -4445,11 +4622,11 @@
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
       <c r="E199" s="4" t="s">
-        <v>137</v>
+        <v>197</v>
       </c>
       <c r="F199" s="4"/>
       <c r="G199" s="4" t="s">
-        <v>137</v>
+        <v>197</v>
       </c>
       <c r="H199" s="4"/>
       <c r="I199" s="5">
@@ -4481,11 +4658,11 @@
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
       <c r="E201" s="4" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="F201" s="4"/>
       <c r="G201" s="4" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="H201" s="4"/>
       <c r="I201" s="5">
@@ -4517,11 +4694,11 @@
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
       <c r="E203" s="4" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="F203" s="4"/>
       <c r="G203" s="4" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="H203" s="4"/>
       <c r="I203" s="5">
@@ -4553,11 +4730,11 @@
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
       <c r="E205" s="4" t="s">
-        <v>137</v>
+        <v>196</v>
       </c>
       <c r="F205" s="4"/>
       <c r="G205" s="4" t="s">
-        <v>137</v>
+        <v>196</v>
       </c>
       <c r="H205" s="4"/>
       <c r="I205" s="5">
@@ -4589,11 +4766,11 @@
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
       <c r="E207" s="4" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="F207" s="4"/>
       <c r="G207" s="4" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="H207" s="4"/>
       <c r="I207" s="5">
@@ -4625,11 +4802,11 @@
       <c r="C209" s="4"/>
       <c r="D209" s="4"/>
       <c r="E209" s="4" t="s">
-        <v>137</v>
+        <v>195</v>
       </c>
       <c r="F209" s="4"/>
       <c r="G209" s="4" t="s">
-        <v>137</v>
+        <v>195</v>
       </c>
       <c r="H209" s="4"/>
       <c r="I209" s="5">
@@ -4661,11 +4838,11 @@
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
       <c r="E211" s="4" t="s">
-        <v>137</v>
+        <v>196</v>
       </c>
       <c r="F211" s="4"/>
       <c r="G211" s="4" t="s">
-        <v>137</v>
+        <v>196</v>
       </c>
       <c r="H211" s="4"/>
       <c r="I211" s="5">
@@ -4697,11 +4874,11 @@
       <c r="C213" s="4"/>
       <c r="D213" s="4"/>
       <c r="E213" s="4" t="s">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="F213" s="4"/>
       <c r="G213" s="4" t="s">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="H213" s="4"/>
       <c r="I213" s="5">
@@ -4733,11 +4910,11 @@
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
       <c r="E215" s="4" t="s">
-        <v>137</v>
+        <v>196</v>
       </c>
       <c r="F215" s="4"/>
       <c r="G215" s="4" t="s">
-        <v>137</v>
+        <v>196</v>
       </c>
       <c r="H215" s="4"/>
       <c r="I215" s="5">
@@ -4769,11 +4946,11 @@
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
       <c r="E217" s="4" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="F217" s="4"/>
       <c r="G217" s="4" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="H217" s="4"/>
       <c r="I217" s="5">
@@ -4805,11 +4982,11 @@
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
       <c r="E219" s="4" t="s">
-        <v>137</v>
+        <v>197</v>
       </c>
       <c r="F219" s="4"/>
       <c r="G219" s="4" t="s">
-        <v>137</v>
+        <v>197</v>
       </c>
       <c r="H219" s="4"/>
       <c r="I219" s="5">
@@ -4841,11 +5018,11 @@
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
       <c r="E221" s="4" t="s">
-        <v>137</v>
+        <v>197</v>
       </c>
       <c r="F221" s="4"/>
       <c r="G221" s="4" t="s">
-        <v>137</v>
+        <v>197</v>
       </c>
       <c r="H221" s="4"/>
       <c r="I221" s="5">
@@ -4877,11 +5054,11 @@
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
       <c r="E223" s="4" t="s">
-        <v>137</v>
+        <v>195</v>
       </c>
       <c r="F223" s="4"/>
       <c r="G223" s="4" t="s">
-        <v>137</v>
+        <v>195</v>
       </c>
       <c r="H223" s="4"/>
       <c r="I223" s="5">
@@ -4913,11 +5090,11 @@
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
       <c r="E225" s="4" t="s">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="F225" s="4"/>
       <c r="G225" s="4" t="s">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="H225" s="4"/>
       <c r="I225" s="5">
@@ -4949,11 +5126,11 @@
       <c r="C227" s="4"/>
       <c r="D227" s="4"/>
       <c r="E227" s="4" t="s">
-        <v>137</v>
+        <v>196</v>
       </c>
       <c r="F227" s="4"/>
       <c r="G227" s="4" t="s">
-        <v>137</v>
+        <v>196</v>
       </c>
       <c r="H227" s="4"/>
       <c r="I227" s="5">
@@ -4985,11 +5162,11 @@
       <c r="C229" s="4"/>
       <c r="D229" s="4"/>
       <c r="E229" s="4" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="F229" s="4"/>
       <c r="G229" s="4" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="H229" s="4"/>
       <c r="I229" s="5">
@@ -5021,11 +5198,11 @@
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
       <c r="E231" s="4" t="s">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="F231" s="4"/>
       <c r="G231" s="4" t="s">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="H231" s="4"/>
       <c r="I231" s="5">
@@ -5057,11 +5234,11 @@
       <c r="C233" s="4"/>
       <c r="D233" s="4"/>
       <c r="E233" s="4" t="s">
-        <v>137</v>
+        <v>195</v>
       </c>
       <c r="F233" s="4"/>
       <c r="G233" s="4" t="s">
-        <v>137</v>
+        <v>195</v>
       </c>
       <c r="H233" s="4"/>
       <c r="I233" s="5">
@@ -5093,11 +5270,11 @@
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
       <c r="E235" s="4" t="s">
-        <v>137</v>
+        <v>195</v>
       </c>
       <c r="F235" s="4"/>
       <c r="G235" s="4" t="s">
-        <v>137</v>
+        <v>195</v>
       </c>
       <c r="H235" s="4"/>
       <c r="I235" s="5">
@@ -5129,11 +5306,11 @@
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
       <c r="E237" s="4" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="F237" s="4"/>
       <c r="G237" s="4" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="H237" s="4"/>
       <c r="I237" s="5">
@@ -5165,11 +5342,11 @@
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
       <c r="E239" s="4" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="F239" s="4"/>
       <c r="G239" s="4" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="H239" s="4"/>
       <c r="I239" s="5">
@@ -5201,11 +5378,11 @@
       <c r="C241" s="4"/>
       <c r="D241" s="4"/>
       <c r="E241" s="4" t="s">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="F241" s="4"/>
       <c r="G241" s="4" t="s">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="H241" s="4"/>
       <c r="I241" s="5">
@@ -5237,11 +5414,11 @@
       <c r="C243" s="4"/>
       <c r="D243" s="4"/>
       <c r="E243" s="4" t="s">
-        <v>136</v>
+        <v>196</v>
       </c>
       <c r="F243" s="4"/>
       <c r="G243" s="4" t="s">
-        <v>136</v>
+        <v>196</v>
       </c>
       <c r="H243" s="4"/>
       <c r="I243" s="5">
@@ -5273,11 +5450,11 @@
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
       <c r="E245" s="4" t="s">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="F245" s="4"/>
       <c r="G245" s="4" t="s">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="H245" s="4"/>
       <c r="I245" s="5">
@@ -5309,11 +5486,11 @@
       <c r="C247" s="4"/>
       <c r="D247" s="4"/>
       <c r="E247" s="4" t="s">
-        <v>137</v>
+        <v>196</v>
       </c>
       <c r="F247" s="4"/>
       <c r="G247" s="4" t="s">
-        <v>137</v>
+        <v>196</v>
       </c>
       <c r="H247" s="4"/>
       <c r="I247" s="5">
@@ -5345,11 +5522,11 @@
       <c r="C249" s="4"/>
       <c r="D249" s="4"/>
       <c r="E249" s="4" t="s">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="F249" s="4"/>
       <c r="G249" s="4" t="s">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="H249" s="4"/>
       <c r="I249" s="5">
@@ -5381,11 +5558,11 @@
       <c r="C251" s="4"/>
       <c r="D251" s="4"/>
       <c r="E251" s="4" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="F251" s="4"/>
       <c r="G251" s="4" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="H251" s="4"/>
       <c r="I251" s="5">
@@ -5417,11 +5594,11 @@
       <c r="C253" s="4"/>
       <c r="D253" s="4"/>
       <c r="E253" s="4" t="s">
-        <v>135</v>
+        <v>197</v>
       </c>
       <c r="F253" s="4"/>
       <c r="G253" s="4" t="s">
-        <v>135</v>
+        <v>197</v>
       </c>
       <c r="H253" s="4"/>
       <c r="I253" s="5">
@@ -5453,11 +5630,11 @@
       <c r="C255" s="4"/>
       <c r="D255" s="4"/>
       <c r="E255" s="4" t="s">
-        <v>135</v>
+        <v>197</v>
       </c>
       <c r="F255" s="4"/>
       <c r="G255" s="4" t="s">
-        <v>135</v>
+        <v>197</v>
       </c>
       <c r="H255" s="4"/>
       <c r="I255" s="5">
@@ -5489,11 +5666,11 @@
       <c r="C257" s="4"/>
       <c r="D257" s="4"/>
       <c r="E257" s="4" t="s">
-        <v>138</v>
+        <v>196</v>
       </c>
       <c r="F257" s="4"/>
       <c r="G257" s="4" t="s">
-        <v>138</v>
+        <v>196</v>
       </c>
       <c r="H257" s="4"/>
       <c r="I257" s="5">
@@ -5501,7 +5678,7 @@
       </c>
       <c r="J257" s="4"/>
       <c r="K257" s="5">
-        <v>44196</v>
+        <v>44195</v>
       </c>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
@@ -5525,11 +5702,11 @@
       <c r="C259" s="4"/>
       <c r="D259" s="4"/>
       <c r="E259" s="4" t="s">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="F259" s="4"/>
       <c r="G259" s="4" t="s">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="H259" s="4"/>
       <c r="I259" s="5">
@@ -5561,11 +5738,11 @@
       <c r="C261" s="4"/>
       <c r="D261" s="4"/>
       <c r="E261" s="4" t="s">
-        <v>137</v>
+        <v>196</v>
       </c>
       <c r="F261" s="4"/>
       <c r="G261" s="4" t="s">
-        <v>137</v>
+        <v>196</v>
       </c>
       <c r="H261" s="4"/>
       <c r="I261" s="5">
@@ -5597,11 +5774,11 @@
       <c r="C263" s="4"/>
       <c r="D263" s="4"/>
       <c r="E263" s="4" t="s">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="F263" s="4"/>
       <c r="G263" s="4" t="s">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="H263" s="4"/>
       <c r="I263" s="5">
@@ -5609,6 +5786,2166 @@
       </c>
       <c r="J263" s="4"/>
       <c r="K263" s="5">
+        <v>44195</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A264" s="2"/>
+      <c r="B264" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C264" s="2"/>
+      <c r="D264" s="2"/>
+      <c r="E264" s="2"/>
+      <c r="F264" s="2"/>
+      <c r="G264" s="2"/>
+      <c r="H264" s="2"/>
+      <c r="I264" s="3"/>
+      <c r="J264" s="2"/>
+      <c r="K264" s="3"/>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A265" s="1"/>
+      <c r="B265" s="1"/>
+      <c r="C265" s="4"/>
+      <c r="D265" s="4"/>
+      <c r="E265" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F265" s="4"/>
+      <c r="G265" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="H265" s="4"/>
+      <c r="I265" s="5">
+        <v>43733</v>
+      </c>
+      <c r="J265" s="4"/>
+      <c r="K265" s="5">
+        <v>44195</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A266" s="2"/>
+      <c r="B266" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C266" s="2"/>
+      <c r="D266" s="2"/>
+      <c r="E266" s="2"/>
+      <c r="F266" s="2"/>
+      <c r="G266" s="2"/>
+      <c r="H266" s="2"/>
+      <c r="I266" s="3"/>
+      <c r="J266" s="2"/>
+      <c r="K266" s="3"/>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A267" s="1"/>
+      <c r="B267" s="1"/>
+      <c r="C267" s="4"/>
+      <c r="D267" s="4"/>
+      <c r="E267" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F267" s="4"/>
+      <c r="G267" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="H267" s="4"/>
+      <c r="I267" s="5">
+        <v>43733</v>
+      </c>
+      <c r="J267" s="4"/>
+      <c r="K267" s="5">
+        <v>44195</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A268" s="2"/>
+      <c r="B268" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C268" s="2"/>
+      <c r="D268" s="2"/>
+      <c r="E268" s="2"/>
+      <c r="F268" s="2"/>
+      <c r="G268" s="2"/>
+      <c r="H268" s="2"/>
+      <c r="I268" s="3"/>
+      <c r="J268" s="2"/>
+      <c r="K268" s="3"/>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A269" s="1"/>
+      <c r="B269" s="1"/>
+      <c r="C269" s="4"/>
+      <c r="D269" s="4"/>
+      <c r="E269" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F269" s="4"/>
+      <c r="G269" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="H269" s="4"/>
+      <c r="I269" s="5">
+        <v>43733</v>
+      </c>
+      <c r="J269" s="4"/>
+      <c r="K269" s="5">
+        <v>44195</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A270" s="2"/>
+      <c r="B270" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C270" s="2"/>
+      <c r="D270" s="2"/>
+      <c r="E270" s="2"/>
+      <c r="F270" s="2"/>
+      <c r="G270" s="2"/>
+      <c r="H270" s="2"/>
+      <c r="I270" s="3"/>
+      <c r="J270" s="2"/>
+      <c r="K270" s="3"/>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A271" s="1"/>
+      <c r="B271" s="1"/>
+      <c r="C271" s="4"/>
+      <c r="D271" s="4"/>
+      <c r="E271" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F271" s="4"/>
+      <c r="G271" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="H271" s="4"/>
+      <c r="I271" s="5">
+        <v>43733</v>
+      </c>
+      <c r="J271" s="4"/>
+      <c r="K271" s="5">
+        <v>44195</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A272" s="2"/>
+      <c r="B272" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C272" s="2"/>
+      <c r="D272" s="2"/>
+      <c r="E272" s="2"/>
+      <c r="F272" s="2"/>
+      <c r="G272" s="2"/>
+      <c r="H272" s="2"/>
+      <c r="I272" s="3"/>
+      <c r="J272" s="2"/>
+      <c r="K272" s="3"/>
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A273" s="1"/>
+      <c r="B273" s="1"/>
+      <c r="C273" s="4"/>
+      <c r="D273" s="4"/>
+      <c r="E273" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F273" s="4"/>
+      <c r="G273" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="H273" s="4"/>
+      <c r="I273" s="5">
+        <v>43733</v>
+      </c>
+      <c r="J273" s="4"/>
+      <c r="K273" s="5">
+        <v>44195</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A274" s="2"/>
+      <c r="B274" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C274" s="2"/>
+      <c r="D274" s="2"/>
+      <c r="E274" s="2"/>
+      <c r="F274" s="2"/>
+      <c r="G274" s="2"/>
+      <c r="H274" s="2"/>
+      <c r="I274" s="3"/>
+      <c r="J274" s="2"/>
+      <c r="K274" s="3"/>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A275" s="1"/>
+      <c r="B275" s="1"/>
+      <c r="C275" s="4"/>
+      <c r="D275" s="4"/>
+      <c r="E275" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F275" s="4"/>
+      <c r="G275" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="H275" s="4"/>
+      <c r="I275" s="5">
+        <v>43733</v>
+      </c>
+      <c r="J275" s="4"/>
+      <c r="K275" s="5">
+        <v>44195</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A276" s="2"/>
+      <c r="B276" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C276" s="2"/>
+      <c r="D276" s="2"/>
+      <c r="E276" s="2"/>
+      <c r="F276" s="2"/>
+      <c r="G276" s="2"/>
+      <c r="H276" s="2"/>
+      <c r="I276" s="3"/>
+      <c r="J276" s="2"/>
+      <c r="K276" s="3"/>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A277" s="1"/>
+      <c r="B277" s="1"/>
+      <c r="C277" s="4"/>
+      <c r="D277" s="4"/>
+      <c r="E277" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F277" s="4"/>
+      <c r="G277" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="H277" s="4"/>
+      <c r="I277" s="5">
+        <v>43733</v>
+      </c>
+      <c r="J277" s="4"/>
+      <c r="K277" s="5">
+        <v>44195</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A278" s="2"/>
+      <c r="B278" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C278" s="2"/>
+      <c r="D278" s="2"/>
+      <c r="E278" s="2"/>
+      <c r="F278" s="2"/>
+      <c r="G278" s="2"/>
+      <c r="H278" s="2"/>
+      <c r="I278" s="3"/>
+      <c r="J278" s="2"/>
+      <c r="K278" s="3"/>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A279" s="1"/>
+      <c r="B279" s="1"/>
+      <c r="C279" s="4"/>
+      <c r="D279" s="4"/>
+      <c r="E279" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F279" s="4"/>
+      <c r="G279" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="H279" s="4"/>
+      <c r="I279" s="5">
+        <v>43733</v>
+      </c>
+      <c r="J279" s="4"/>
+      <c r="K279" s="5">
+        <v>44195</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A280" s="2"/>
+      <c r="B280" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C280" s="2"/>
+      <c r="D280" s="2"/>
+      <c r="E280" s="2"/>
+      <c r="F280" s="2"/>
+      <c r="G280" s="2"/>
+      <c r="H280" s="2"/>
+      <c r="I280" s="3"/>
+      <c r="J280" s="2"/>
+      <c r="K280" s="3"/>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A281" s="1"/>
+      <c r="B281" s="1"/>
+      <c r="C281" s="4"/>
+      <c r="D281" s="4"/>
+      <c r="E281" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F281" s="4"/>
+      <c r="G281" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="H281" s="4"/>
+      <c r="I281" s="5">
+        <v>43733</v>
+      </c>
+      <c r="J281" s="4"/>
+      <c r="K281" s="5">
+        <v>44195</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A282" s="2"/>
+      <c r="B282" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C282" s="2"/>
+      <c r="D282" s="2"/>
+      <c r="E282" s="2"/>
+      <c r="F282" s="2"/>
+      <c r="G282" s="2"/>
+      <c r="H282" s="2"/>
+      <c r="I282" s="3"/>
+      <c r="J282" s="2"/>
+      <c r="K282" s="3"/>
+    </row>
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A283" s="1"/>
+      <c r="B283" s="1"/>
+      <c r="C283" s="4"/>
+      <c r="D283" s="4"/>
+      <c r="E283" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F283" s="4"/>
+      <c r="G283" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="H283" s="4"/>
+      <c r="I283" s="5">
+        <v>43733</v>
+      </c>
+      <c r="J283" s="4"/>
+      <c r="K283" s="5">
+        <v>44195</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A284" s="2"/>
+      <c r="B284" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C284" s="2"/>
+      <c r="D284" s="2"/>
+      <c r="E284" s="2"/>
+      <c r="F284" s="2"/>
+      <c r="G284" s="2"/>
+      <c r="H284" s="2"/>
+      <c r="I284" s="3"/>
+      <c r="J284" s="2"/>
+      <c r="K284" s="3"/>
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A285" s="1"/>
+      <c r="B285" s="1"/>
+      <c r="C285" s="4"/>
+      <c r="D285" s="4"/>
+      <c r="E285" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F285" s="4"/>
+      <c r="G285" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="H285" s="4"/>
+      <c r="I285" s="5">
+        <v>43733</v>
+      </c>
+      <c r="J285" s="4"/>
+      <c r="K285" s="5">
+        <v>44195</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A286" s="2"/>
+      <c r="B286" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C286" s="2"/>
+      <c r="D286" s="2"/>
+      <c r="E286" s="2"/>
+      <c r="F286" s="2"/>
+      <c r="G286" s="2"/>
+      <c r="H286" s="2"/>
+      <c r="I286" s="3"/>
+      <c r="J286" s="2"/>
+      <c r="K286" s="3"/>
+    </row>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A287" s="1"/>
+      <c r="B287" s="1"/>
+      <c r="C287" s="4"/>
+      <c r="D287" s="4"/>
+      <c r="E287" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F287" s="4"/>
+      <c r="G287" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="H287" s="4"/>
+      <c r="I287" s="5">
+        <v>43733</v>
+      </c>
+      <c r="J287" s="4"/>
+      <c r="K287" s="5">
+        <v>44195</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A288" s="2"/>
+      <c r="B288" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C288" s="2"/>
+      <c r="D288" s="2"/>
+      <c r="E288" s="2"/>
+      <c r="F288" s="2"/>
+      <c r="G288" s="2"/>
+      <c r="H288" s="2"/>
+      <c r="I288" s="3"/>
+      <c r="J288" s="2"/>
+      <c r="K288" s="3"/>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A289" s="1"/>
+      <c r="B289" s="1"/>
+      <c r="C289" s="4"/>
+      <c r="D289" s="4"/>
+      <c r="E289" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F289" s="4"/>
+      <c r="G289" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="H289" s="4"/>
+      <c r="I289" s="5">
+        <v>43733</v>
+      </c>
+      <c r="J289" s="4"/>
+      <c r="K289" s="5">
+        <v>44195</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A290" s="2"/>
+      <c r="B290" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C290" s="2"/>
+      <c r="D290" s="2"/>
+      <c r="E290" s="2"/>
+      <c r="F290" s="2"/>
+      <c r="G290" s="2"/>
+      <c r="H290" s="2"/>
+      <c r="I290" s="3"/>
+      <c r="J290" s="2"/>
+      <c r="K290" s="3"/>
+    </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A291" s="1"/>
+      <c r="B291" s="1"/>
+      <c r="C291" s="4"/>
+      <c r="D291" s="4"/>
+      <c r="E291" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F291" s="4"/>
+      <c r="G291" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="H291" s="4"/>
+      <c r="I291" s="5">
+        <v>43733</v>
+      </c>
+      <c r="J291" s="4"/>
+      <c r="K291" s="5">
+        <v>44195</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A292" s="2"/>
+      <c r="B292" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C292" s="2"/>
+      <c r="D292" s="2"/>
+      <c r="E292" s="2"/>
+      <c r="F292" s="2"/>
+      <c r="G292" s="2"/>
+      <c r="H292" s="2"/>
+      <c r="I292" s="3"/>
+      <c r="J292" s="2"/>
+      <c r="K292" s="3"/>
+    </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A293" s="1"/>
+      <c r="B293" s="1"/>
+      <c r="C293" s="4"/>
+      <c r="D293" s="4"/>
+      <c r="E293" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F293" s="4"/>
+      <c r="G293" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="H293" s="4"/>
+      <c r="I293" s="5">
+        <v>43733</v>
+      </c>
+      <c r="J293" s="4"/>
+      <c r="K293" s="5">
+        <v>44195</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A294" s="2"/>
+      <c r="B294" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C294" s="2"/>
+      <c r="D294" s="2"/>
+      <c r="E294" s="2"/>
+      <c r="F294" s="2"/>
+      <c r="G294" s="2"/>
+      <c r="H294" s="2"/>
+      <c r="I294" s="3"/>
+      <c r="J294" s="2"/>
+      <c r="K294" s="3"/>
+    </row>
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A295" s="1"/>
+      <c r="B295" s="1"/>
+      <c r="C295" s="4"/>
+      <c r="D295" s="4"/>
+      <c r="E295" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F295" s="4"/>
+      <c r="G295" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="H295" s="4"/>
+      <c r="I295" s="5">
+        <v>43733</v>
+      </c>
+      <c r="J295" s="4"/>
+      <c r="K295" s="5">
+        <v>44195</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A296" s="2"/>
+      <c r="B296" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C296" s="2"/>
+      <c r="D296" s="2"/>
+      <c r="E296" s="2"/>
+      <c r="F296" s="2"/>
+      <c r="G296" s="2"/>
+      <c r="H296" s="2"/>
+      <c r="I296" s="3"/>
+      <c r="J296" s="2"/>
+      <c r="K296" s="3"/>
+    </row>
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A297" s="1"/>
+      <c r="B297" s="1"/>
+      <c r="C297" s="4"/>
+      <c r="D297" s="4"/>
+      <c r="E297" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F297" s="4"/>
+      <c r="G297" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="H297" s="4"/>
+      <c r="I297" s="5">
+        <v>43733</v>
+      </c>
+      <c r="J297" s="4"/>
+      <c r="K297" s="5">
+        <v>44195</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A298" s="2"/>
+      <c r="B298" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C298" s="2"/>
+      <c r="D298" s="2"/>
+      <c r="E298" s="2"/>
+      <c r="F298" s="2"/>
+      <c r="G298" s="2"/>
+      <c r="H298" s="2"/>
+      <c r="I298" s="3"/>
+      <c r="J298" s="2"/>
+      <c r="K298" s="3"/>
+    </row>
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A299" s="1"/>
+      <c r="B299" s="1"/>
+      <c r="C299" s="4"/>
+      <c r="D299" s="4"/>
+      <c r="E299" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F299" s="4"/>
+      <c r="G299" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="H299" s="4"/>
+      <c r="I299" s="5">
+        <v>43733</v>
+      </c>
+      <c r="J299" s="4"/>
+      <c r="K299" s="5">
+        <v>44195</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A300" s="2"/>
+      <c r="B300" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C300" s="2"/>
+      <c r="D300" s="2"/>
+      <c r="E300" s="2"/>
+      <c r="F300" s="2"/>
+      <c r="G300" s="2"/>
+      <c r="H300" s="2"/>
+      <c r="I300" s="3"/>
+      <c r="J300" s="2"/>
+      <c r="K300" s="3"/>
+    </row>
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A301" s="1"/>
+      <c r="B301" s="1"/>
+      <c r="C301" s="4"/>
+      <c r="D301" s="4"/>
+      <c r="E301" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F301" s="4"/>
+      <c r="G301" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="H301" s="4"/>
+      <c r="I301" s="5">
+        <v>43733</v>
+      </c>
+      <c r="J301" s="4"/>
+      <c r="K301" s="5">
+        <v>44195</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A302" s="2"/>
+      <c r="B302" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C302" s="2"/>
+      <c r="D302" s="2"/>
+      <c r="E302" s="2"/>
+      <c r="F302" s="2"/>
+      <c r="G302" s="2"/>
+      <c r="H302" s="2"/>
+      <c r="I302" s="3"/>
+      <c r="J302" s="2"/>
+      <c r="K302" s="3"/>
+    </row>
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A303" s="1"/>
+      <c r="B303" s="1"/>
+      <c r="C303" s="4"/>
+      <c r="D303" s="4"/>
+      <c r="E303" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F303" s="4"/>
+      <c r="G303" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="H303" s="4"/>
+      <c r="I303" s="5">
+        <v>43733</v>
+      </c>
+      <c r="J303" s="4"/>
+      <c r="K303" s="5">
+        <v>44195</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A304" s="2"/>
+      <c r="B304" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C304" s="2"/>
+      <c r="D304" s="2"/>
+      <c r="E304" s="2"/>
+      <c r="F304" s="2"/>
+      <c r="G304" s="2"/>
+      <c r="H304" s="2"/>
+      <c r="I304" s="3"/>
+      <c r="J304" s="2"/>
+      <c r="K304" s="3"/>
+    </row>
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A305" s="1"/>
+      <c r="B305" s="1"/>
+      <c r="C305" s="4"/>
+      <c r="D305" s="4"/>
+      <c r="E305" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F305" s="4"/>
+      <c r="G305" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="H305" s="4"/>
+      <c r="I305" s="5">
+        <v>43733</v>
+      </c>
+      <c r="J305" s="4"/>
+      <c r="K305" s="5">
+        <v>44195</v>
+      </c>
+    </row>
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A306" s="2"/>
+      <c r="B306" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C306" s="2"/>
+      <c r="D306" s="2"/>
+      <c r="E306" s="2"/>
+      <c r="F306" s="2"/>
+      <c r="G306" s="2"/>
+      <c r="H306" s="2"/>
+      <c r="I306" s="3"/>
+      <c r="J306" s="2"/>
+      <c r="K306" s="3"/>
+    </row>
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A307" s="1"/>
+      <c r="B307" s="1"/>
+      <c r="C307" s="4"/>
+      <c r="D307" s="4"/>
+      <c r="E307" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F307" s="4"/>
+      <c r="G307" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="H307" s="4"/>
+      <c r="I307" s="5">
+        <v>43733</v>
+      </c>
+      <c r="J307" s="4"/>
+      <c r="K307" s="5">
+        <v>44195</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A308" s="2"/>
+      <c r="B308" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C308" s="2"/>
+      <c r="D308" s="2"/>
+      <c r="E308" s="2"/>
+      <c r="F308" s="2"/>
+      <c r="G308" s="2"/>
+      <c r="H308" s="2"/>
+      <c r="I308" s="3"/>
+      <c r="J308" s="2"/>
+      <c r="K308" s="3"/>
+    </row>
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A309" s="1"/>
+      <c r="B309" s="1"/>
+      <c r="C309" s="4"/>
+      <c r="D309" s="4"/>
+      <c r="E309" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F309" s="4"/>
+      <c r="G309" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="H309" s="4"/>
+      <c r="I309" s="5">
+        <v>43733</v>
+      </c>
+      <c r="J309" s="4"/>
+      <c r="K309" s="5">
+        <v>44195</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A310" s="2"/>
+      <c r="B310" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C310" s="2"/>
+      <c r="D310" s="2"/>
+      <c r="E310" s="2"/>
+      <c r="F310" s="2"/>
+      <c r="G310" s="2"/>
+      <c r="H310" s="2"/>
+      <c r="I310" s="3"/>
+      <c r="J310" s="2"/>
+      <c r="K310" s="3"/>
+    </row>
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A311" s="1"/>
+      <c r="B311" s="1"/>
+      <c r="C311" s="4"/>
+      <c r="D311" s="4"/>
+      <c r="E311" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F311" s="4"/>
+      <c r="G311" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="H311" s="4"/>
+      <c r="I311" s="5">
+        <v>43733</v>
+      </c>
+      <c r="J311" s="4"/>
+      <c r="K311" s="5">
+        <v>44195</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A312" s="2"/>
+      <c r="B312" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C312" s="2"/>
+      <c r="D312" s="2"/>
+      <c r="E312" s="2"/>
+      <c r="F312" s="2"/>
+      <c r="G312" s="2"/>
+      <c r="H312" s="2"/>
+      <c r="I312" s="3"/>
+      <c r="J312" s="2"/>
+      <c r="K312" s="3"/>
+    </row>
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A313" s="1"/>
+      <c r="B313" s="1"/>
+      <c r="C313" s="4"/>
+      <c r="D313" s="4"/>
+      <c r="E313" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F313" s="4"/>
+      <c r="G313" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="H313" s="4"/>
+      <c r="I313" s="5">
+        <v>43733</v>
+      </c>
+      <c r="J313" s="4"/>
+      <c r="K313" s="5">
+        <v>44195</v>
+      </c>
+    </row>
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A314" s="2"/>
+      <c r="B314" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C314" s="2"/>
+      <c r="D314" s="2"/>
+      <c r="E314" s="2"/>
+      <c r="F314" s="2"/>
+      <c r="G314" s="2"/>
+      <c r="H314" s="2"/>
+      <c r="I314" s="3"/>
+      <c r="J314" s="2"/>
+      <c r="K314" s="3"/>
+    </row>
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A315" s="1"/>
+      <c r="B315" s="1"/>
+      <c r="C315" s="4"/>
+      <c r="D315" s="4"/>
+      <c r="E315" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F315" s="4"/>
+      <c r="G315" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="H315" s="4"/>
+      <c r="I315" s="5">
+        <v>43733</v>
+      </c>
+      <c r="J315" s="4"/>
+      <c r="K315" s="5">
+        <v>44195</v>
+      </c>
+    </row>
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A316" s="2"/>
+      <c r="B316" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C316" s="2"/>
+      <c r="D316" s="2"/>
+      <c r="E316" s="2"/>
+      <c r="F316" s="2"/>
+      <c r="G316" s="2"/>
+      <c r="H316" s="2"/>
+      <c r="I316" s="3"/>
+      <c r="J316" s="2"/>
+      <c r="K316" s="3"/>
+    </row>
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A317" s="1"/>
+      <c r="B317" s="1"/>
+      <c r="C317" s="4"/>
+      <c r="D317" s="4"/>
+      <c r="E317" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F317" s="4"/>
+      <c r="G317" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="H317" s="4"/>
+      <c r="I317" s="5">
+        <v>43733</v>
+      </c>
+      <c r="J317" s="4"/>
+      <c r="K317" s="5">
+        <v>44195</v>
+      </c>
+    </row>
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A318" s="2"/>
+      <c r="B318" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C318" s="2"/>
+      <c r="D318" s="2"/>
+      <c r="E318" s="2"/>
+      <c r="F318" s="2"/>
+      <c r="G318" s="2"/>
+      <c r="H318" s="2"/>
+      <c r="I318" s="3"/>
+      <c r="J318" s="2"/>
+      <c r="K318" s="3"/>
+    </row>
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A319" s="1"/>
+      <c r="B319" s="1"/>
+      <c r="C319" s="4"/>
+      <c r="D319" s="4"/>
+      <c r="E319" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F319" s="4"/>
+      <c r="G319" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="H319" s="4"/>
+      <c r="I319" s="5">
+        <v>43733</v>
+      </c>
+      <c r="J319" s="4"/>
+      <c r="K319" s="5">
+        <v>44195</v>
+      </c>
+    </row>
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A320" s="2"/>
+      <c r="B320" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C320" s="2"/>
+      <c r="D320" s="2"/>
+      <c r="E320" s="2"/>
+      <c r="F320" s="2"/>
+      <c r="G320" s="2"/>
+      <c r="H320" s="2"/>
+      <c r="I320" s="3"/>
+      <c r="J320" s="2"/>
+      <c r="K320" s="3"/>
+    </row>
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A321" s="1"/>
+      <c r="B321" s="1"/>
+      <c r="C321" s="4"/>
+      <c r="D321" s="4"/>
+      <c r="E321" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F321" s="4"/>
+      <c r="G321" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="H321" s="4"/>
+      <c r="I321" s="5">
+        <v>43733</v>
+      </c>
+      <c r="J321" s="4"/>
+      <c r="K321" s="5">
+        <v>44195</v>
+      </c>
+    </row>
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A322" s="2"/>
+      <c r="B322" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C322" s="2"/>
+      <c r="D322" s="2"/>
+      <c r="E322" s="2"/>
+      <c r="F322" s="2"/>
+      <c r="G322" s="2"/>
+      <c r="H322" s="2"/>
+      <c r="I322" s="3"/>
+      <c r="J322" s="2"/>
+      <c r="K322" s="3"/>
+    </row>
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A323" s="1"/>
+      <c r="B323" s="1"/>
+      <c r="C323" s="4"/>
+      <c r="D323" s="4"/>
+      <c r="E323" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F323" s="4"/>
+      <c r="G323" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="H323" s="4"/>
+      <c r="I323" s="5">
+        <v>43733</v>
+      </c>
+      <c r="J323" s="4"/>
+      <c r="K323" s="5">
+        <v>44195</v>
+      </c>
+    </row>
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A324" s="2"/>
+      <c r="B324" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C324" s="2"/>
+      <c r="D324" s="2"/>
+      <c r="E324" s="2"/>
+      <c r="F324" s="2"/>
+      <c r="G324" s="2"/>
+      <c r="H324" s="2"/>
+      <c r="I324" s="3"/>
+      <c r="J324" s="2"/>
+      <c r="K324" s="3"/>
+    </row>
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A325" s="1"/>
+      <c r="B325" s="1"/>
+      <c r="C325" s="4"/>
+      <c r="D325" s="4"/>
+      <c r="E325" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F325" s="4"/>
+      <c r="G325" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="H325" s="4"/>
+      <c r="I325" s="5">
+        <v>43733</v>
+      </c>
+      <c r="J325" s="4"/>
+      <c r="K325" s="5">
+        <v>44195</v>
+      </c>
+    </row>
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A326" s="2"/>
+      <c r="B326" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C326" s="2"/>
+      <c r="D326" s="2"/>
+      <c r="E326" s="2"/>
+      <c r="F326" s="2"/>
+      <c r="G326" s="2"/>
+      <c r="H326" s="2"/>
+      <c r="I326" s="3"/>
+      <c r="J326" s="2"/>
+      <c r="K326" s="3"/>
+    </row>
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A327" s="1"/>
+      <c r="B327" s="1"/>
+      <c r="C327" s="4"/>
+      <c r="D327" s="4"/>
+      <c r="E327" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F327" s="4"/>
+      <c r="G327" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="H327" s="4"/>
+      <c r="I327" s="5">
+        <v>43733</v>
+      </c>
+      <c r="J327" s="4"/>
+      <c r="K327" s="5">
+        <v>44195</v>
+      </c>
+    </row>
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A328" s="2"/>
+      <c r="B328" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C328" s="2"/>
+      <c r="D328" s="2"/>
+      <c r="E328" s="2"/>
+      <c r="F328" s="2"/>
+      <c r="G328" s="2"/>
+      <c r="H328" s="2"/>
+      <c r="I328" s="3"/>
+      <c r="J328" s="2"/>
+      <c r="K328" s="3"/>
+    </row>
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A329" s="1"/>
+      <c r="B329" s="1"/>
+      <c r="C329" s="4"/>
+      <c r="D329" s="4"/>
+      <c r="E329" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F329" s="4"/>
+      <c r="G329" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="H329" s="4"/>
+      <c r="I329" s="5">
+        <v>43733</v>
+      </c>
+      <c r="J329" s="4"/>
+      <c r="K329" s="5">
+        <v>44195</v>
+      </c>
+    </row>
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A330" s="2"/>
+      <c r="B330" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C330" s="2"/>
+      <c r="D330" s="2"/>
+      <c r="E330" s="2"/>
+      <c r="F330" s="2"/>
+      <c r="G330" s="2"/>
+      <c r="H330" s="2"/>
+      <c r="I330" s="3"/>
+      <c r="J330" s="2"/>
+      <c r="K330" s="3"/>
+    </row>
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A331" s="1"/>
+      <c r="B331" s="1"/>
+      <c r="C331" s="4"/>
+      <c r="D331" s="4"/>
+      <c r="E331" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F331" s="4"/>
+      <c r="G331" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="H331" s="4"/>
+      <c r="I331" s="5">
+        <v>43733</v>
+      </c>
+      <c r="J331" s="4"/>
+      <c r="K331" s="5">
+        <v>44195</v>
+      </c>
+    </row>
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A332" s="2"/>
+      <c r="B332" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C332" s="2"/>
+      <c r="D332" s="2"/>
+      <c r="E332" s="2"/>
+      <c r="F332" s="2"/>
+      <c r="G332" s="2"/>
+      <c r="H332" s="2"/>
+      <c r="I332" s="3"/>
+      <c r="J332" s="2"/>
+      <c r="K332" s="3"/>
+    </row>
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A333" s="1"/>
+      <c r="B333" s="1"/>
+      <c r="C333" s="4"/>
+      <c r="D333" s="4"/>
+      <c r="E333" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F333" s="4"/>
+      <c r="G333" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="H333" s="4"/>
+      <c r="I333" s="5">
+        <v>43733</v>
+      </c>
+      <c r="J333" s="4"/>
+      <c r="K333" s="5">
+        <v>44195</v>
+      </c>
+    </row>
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A334" s="2"/>
+      <c r="B334" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C334" s="2"/>
+      <c r="D334" s="2"/>
+      <c r="E334" s="2"/>
+      <c r="F334" s="2"/>
+      <c r="G334" s="2"/>
+      <c r="H334" s="2"/>
+      <c r="I334" s="3"/>
+      <c r="J334" s="2"/>
+      <c r="K334" s="3"/>
+    </row>
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A335" s="1"/>
+      <c r="B335" s="1"/>
+      <c r="C335" s="4"/>
+      <c r="D335" s="4"/>
+      <c r="E335" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F335" s="4"/>
+      <c r="G335" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="H335" s="4"/>
+      <c r="I335" s="5">
+        <v>43733</v>
+      </c>
+      <c r="J335" s="4"/>
+      <c r="K335" s="5">
+        <v>44195</v>
+      </c>
+    </row>
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A336" s="2"/>
+      <c r="B336" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C336" s="2"/>
+      <c r="D336" s="2"/>
+      <c r="E336" s="2"/>
+      <c r="F336" s="2"/>
+      <c r="G336" s="2"/>
+      <c r="H336" s="2"/>
+      <c r="I336" s="3"/>
+      <c r="J336" s="2"/>
+      <c r="K336" s="3"/>
+    </row>
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A337" s="1"/>
+      <c r="B337" s="1"/>
+      <c r="C337" s="4"/>
+      <c r="D337" s="4"/>
+      <c r="E337" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F337" s="4"/>
+      <c r="G337" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="H337" s="4"/>
+      <c r="I337" s="5">
+        <v>43733</v>
+      </c>
+      <c r="J337" s="4"/>
+      <c r="K337" s="5">
+        <v>44195</v>
+      </c>
+    </row>
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A338" s="2"/>
+      <c r="B338" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C338" s="2"/>
+      <c r="D338" s="2"/>
+      <c r="E338" s="2"/>
+      <c r="F338" s="2"/>
+      <c r="G338" s="2"/>
+      <c r="H338" s="2"/>
+      <c r="I338" s="3"/>
+      <c r="J338" s="2"/>
+      <c r="K338" s="3"/>
+    </row>
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A339" s="1"/>
+      <c r="B339" s="1"/>
+      <c r="C339" s="4"/>
+      <c r="D339" s="4"/>
+      <c r="E339" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F339" s="4"/>
+      <c r="G339" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="H339" s="4"/>
+      <c r="I339" s="5">
+        <v>43733</v>
+      </c>
+      <c r="J339" s="4"/>
+      <c r="K339" s="5">
+        <v>44195</v>
+      </c>
+    </row>
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A340" s="2"/>
+      <c r="B340" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C340" s="2"/>
+      <c r="D340" s="2"/>
+      <c r="E340" s="2"/>
+      <c r="F340" s="2"/>
+      <c r="G340" s="2"/>
+      <c r="H340" s="2"/>
+      <c r="I340" s="3"/>
+      <c r="J340" s="2"/>
+      <c r="K340" s="3"/>
+    </row>
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A341" s="1"/>
+      <c r="B341" s="1"/>
+      <c r="C341" s="4"/>
+      <c r="D341" s="4"/>
+      <c r="E341" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F341" s="4"/>
+      <c r="G341" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="H341" s="4"/>
+      <c r="I341" s="5">
+        <v>43733</v>
+      </c>
+      <c r="J341" s="4"/>
+      <c r="K341" s="5">
+        <v>44195</v>
+      </c>
+    </row>
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A342" s="2"/>
+      <c r="B342" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C342" s="2"/>
+      <c r="D342" s="2"/>
+      <c r="E342" s="2"/>
+      <c r="F342" s="2"/>
+      <c r="G342" s="2"/>
+      <c r="H342" s="2"/>
+      <c r="I342" s="3"/>
+      <c r="J342" s="2"/>
+      <c r="K342" s="3"/>
+    </row>
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A343" s="1"/>
+      <c r="B343" s="1"/>
+      <c r="C343" s="4"/>
+      <c r="D343" s="4"/>
+      <c r="E343" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F343" s="4"/>
+      <c r="G343" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="H343" s="4"/>
+      <c r="I343" s="5">
+        <v>43733</v>
+      </c>
+      <c r="J343" s="4"/>
+      <c r="K343" s="5">
+        <v>44195</v>
+      </c>
+    </row>
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A344" s="2"/>
+      <c r="B344" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C344" s="2"/>
+      <c r="D344" s="2"/>
+      <c r="E344" s="2"/>
+      <c r="F344" s="2"/>
+      <c r="G344" s="2"/>
+      <c r="H344" s="2"/>
+      <c r="I344" s="3"/>
+      <c r="J344" s="2"/>
+      <c r="K344" s="3"/>
+    </row>
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A345" s="1"/>
+      <c r="B345" s="1"/>
+      <c r="C345" s="4"/>
+      <c r="D345" s="4"/>
+      <c r="E345" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F345" s="4"/>
+      <c r="G345" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="H345" s="4"/>
+      <c r="I345" s="5">
+        <v>43733</v>
+      </c>
+      <c r="J345" s="4"/>
+      <c r="K345" s="5">
+        <v>44195</v>
+      </c>
+    </row>
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A346" s="2"/>
+      <c r="B346" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C346" s="2"/>
+      <c r="D346" s="2"/>
+      <c r="E346" s="2"/>
+      <c r="F346" s="2"/>
+      <c r="G346" s="2"/>
+      <c r="H346" s="2"/>
+      <c r="I346" s="3"/>
+      <c r="J346" s="2"/>
+      <c r="K346" s="3"/>
+    </row>
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A347" s="1"/>
+      <c r="B347" s="1"/>
+      <c r="C347" s="4"/>
+      <c r="D347" s="4"/>
+      <c r="E347" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F347" s="4"/>
+      <c r="G347" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="H347" s="4"/>
+      <c r="I347" s="5">
+        <v>43733</v>
+      </c>
+      <c r="J347" s="4"/>
+      <c r="K347" s="5">
+        <v>44195</v>
+      </c>
+    </row>
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A348" s="2"/>
+      <c r="B348" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C348" s="2"/>
+      <c r="D348" s="2"/>
+      <c r="E348" s="2"/>
+      <c r="F348" s="2"/>
+      <c r="G348" s="2"/>
+      <c r="H348" s="2"/>
+      <c r="I348" s="3"/>
+      <c r="J348" s="2"/>
+      <c r="K348" s="3"/>
+    </row>
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A349" s="1"/>
+      <c r="B349" s="1"/>
+      <c r="C349" s="4"/>
+      <c r="D349" s="4"/>
+      <c r="E349" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F349" s="4"/>
+      <c r="G349" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="H349" s="4"/>
+      <c r="I349" s="5">
+        <v>43733</v>
+      </c>
+      <c r="J349" s="4"/>
+      <c r="K349" s="5">
+        <v>44195</v>
+      </c>
+    </row>
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A350" s="2"/>
+      <c r="B350" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C350" s="2"/>
+      <c r="D350" s="2"/>
+      <c r="E350" s="2"/>
+      <c r="F350" s="2"/>
+      <c r="G350" s="2"/>
+      <c r="H350" s="2"/>
+      <c r="I350" s="3"/>
+      <c r="J350" s="2"/>
+      <c r="K350" s="3"/>
+    </row>
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A351" s="1"/>
+      <c r="B351" s="1"/>
+      <c r="C351" s="4"/>
+      <c r="D351" s="4"/>
+      <c r="E351" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F351" s="4"/>
+      <c r="G351" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="H351" s="4"/>
+      <c r="I351" s="5">
+        <v>43733</v>
+      </c>
+      <c r="J351" s="4"/>
+      <c r="K351" s="5">
+        <v>44195</v>
+      </c>
+    </row>
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A352" s="2"/>
+      <c r="B352" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C352" s="2"/>
+      <c r="D352" s="2"/>
+      <c r="E352" s="2"/>
+      <c r="F352" s="2"/>
+      <c r="G352" s="2"/>
+      <c r="H352" s="2"/>
+      <c r="I352" s="3"/>
+      <c r="J352" s="2"/>
+      <c r="K352" s="3"/>
+    </row>
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A353" s="1"/>
+      <c r="B353" s="1"/>
+      <c r="C353" s="4"/>
+      <c r="D353" s="4"/>
+      <c r="E353" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F353" s="4"/>
+      <c r="G353" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="H353" s="4"/>
+      <c r="I353" s="5">
+        <v>43733</v>
+      </c>
+      <c r="J353" s="4"/>
+      <c r="K353" s="5">
+        <v>44195</v>
+      </c>
+    </row>
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A354" s="2"/>
+      <c r="B354" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C354" s="2"/>
+      <c r="D354" s="2"/>
+      <c r="E354" s="2"/>
+      <c r="F354" s="2"/>
+      <c r="G354" s="2"/>
+      <c r="H354" s="2"/>
+      <c r="I354" s="3"/>
+      <c r="J354" s="2"/>
+      <c r="K354" s="3"/>
+    </row>
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A355" s="1"/>
+      <c r="B355" s="1"/>
+      <c r="C355" s="4"/>
+      <c r="D355" s="4"/>
+      <c r="E355" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F355" s="4"/>
+      <c r="G355" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="H355" s="4"/>
+      <c r="I355" s="5">
+        <v>43733</v>
+      </c>
+      <c r="J355" s="4"/>
+      <c r="K355" s="5">
+        <v>44195</v>
+      </c>
+    </row>
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A356" s="2"/>
+      <c r="B356" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C356" s="2"/>
+      <c r="D356" s="2"/>
+      <c r="E356" s="2"/>
+      <c r="F356" s="2"/>
+      <c r="G356" s="2"/>
+      <c r="H356" s="2"/>
+      <c r="I356" s="3"/>
+      <c r="J356" s="2"/>
+      <c r="K356" s="3"/>
+    </row>
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A357" s="1"/>
+      <c r="B357" s="1"/>
+      <c r="C357" s="4"/>
+      <c r="D357" s="4"/>
+      <c r="E357" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F357" s="4"/>
+      <c r="G357" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="H357" s="4"/>
+      <c r="I357" s="5">
+        <v>43733</v>
+      </c>
+      <c r="J357" s="4"/>
+      <c r="K357" s="5">
+        <v>44195</v>
+      </c>
+    </row>
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A358" s="2"/>
+      <c r="B358" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C358" s="2"/>
+      <c r="D358" s="2"/>
+      <c r="E358" s="2"/>
+      <c r="F358" s="2"/>
+      <c r="G358" s="2"/>
+      <c r="H358" s="2"/>
+      <c r="I358" s="3"/>
+      <c r="J358" s="2"/>
+      <c r="K358" s="3"/>
+    </row>
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A359" s="1"/>
+      <c r="B359" s="1"/>
+      <c r="C359" s="4"/>
+      <c r="D359" s="4"/>
+      <c r="E359" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F359" s="4"/>
+      <c r="G359" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="H359" s="4"/>
+      <c r="I359" s="5">
+        <v>43733</v>
+      </c>
+      <c r="J359" s="4"/>
+      <c r="K359" s="5">
+        <v>44195</v>
+      </c>
+    </row>
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A360" s="2"/>
+      <c r="B360" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C360" s="2"/>
+      <c r="D360" s="2"/>
+      <c r="E360" s="2"/>
+      <c r="F360" s="2"/>
+      <c r="G360" s="2"/>
+      <c r="H360" s="2"/>
+      <c r="I360" s="3"/>
+      <c r="J360" s="2"/>
+      <c r="K360" s="3"/>
+    </row>
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A361" s="1"/>
+      <c r="B361" s="1"/>
+      <c r="C361" s="4"/>
+      <c r="D361" s="4"/>
+      <c r="E361" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F361" s="4"/>
+      <c r="G361" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="H361" s="4"/>
+      <c r="I361" s="5">
+        <v>43733</v>
+      </c>
+      <c r="J361" s="4"/>
+      <c r="K361" s="5">
+        <v>44195</v>
+      </c>
+    </row>
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A362" s="2"/>
+      <c r="B362" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C362" s="2"/>
+      <c r="D362" s="2"/>
+      <c r="E362" s="2"/>
+      <c r="F362" s="2"/>
+      <c r="G362" s="2"/>
+      <c r="H362" s="2"/>
+      <c r="I362" s="3"/>
+      <c r="J362" s="2"/>
+      <c r="K362" s="3"/>
+    </row>
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A363" s="1"/>
+      <c r="B363" s="1"/>
+      <c r="C363" s="4"/>
+      <c r="D363" s="4"/>
+      <c r="E363" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F363" s="4"/>
+      <c r="G363" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="H363" s="4"/>
+      <c r="I363" s="5">
+        <v>43733</v>
+      </c>
+      <c r="J363" s="4"/>
+      <c r="K363" s="5">
+        <v>44195</v>
+      </c>
+    </row>
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A364" s="2"/>
+      <c r="B364" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C364" s="2"/>
+      <c r="D364" s="2"/>
+      <c r="E364" s="2"/>
+      <c r="F364" s="2"/>
+      <c r="G364" s="2"/>
+      <c r="H364" s="2"/>
+      <c r="I364" s="3"/>
+      <c r="J364" s="2"/>
+      <c r="K364" s="3"/>
+    </row>
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A365" s="1"/>
+      <c r="B365" s="1"/>
+      <c r="C365" s="4"/>
+      <c r="D365" s="4"/>
+      <c r="E365" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F365" s="4"/>
+      <c r="G365" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="H365" s="4"/>
+      <c r="I365" s="5">
+        <v>43733</v>
+      </c>
+      <c r="J365" s="4"/>
+      <c r="K365" s="5">
+        <v>44195</v>
+      </c>
+    </row>
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A366" s="2"/>
+      <c r="B366" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C366" s="2"/>
+      <c r="D366" s="2"/>
+      <c r="E366" s="2"/>
+      <c r="F366" s="2"/>
+      <c r="G366" s="2"/>
+      <c r="H366" s="2"/>
+      <c r="I366" s="3"/>
+      <c r="J366" s="2"/>
+      <c r="K366" s="3"/>
+    </row>
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A367" s="1"/>
+      <c r="B367" s="1"/>
+      <c r="C367" s="4"/>
+      <c r="D367" s="4"/>
+      <c r="E367" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F367" s="4"/>
+      <c r="G367" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="H367" s="4"/>
+      <c r="I367" s="5">
+        <v>43733</v>
+      </c>
+      <c r="J367" s="4"/>
+      <c r="K367" s="5">
+        <v>44195</v>
+      </c>
+    </row>
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A368" s="2"/>
+      <c r="B368" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C368" s="2"/>
+      <c r="D368" s="2"/>
+      <c r="E368" s="2"/>
+      <c r="F368" s="2"/>
+      <c r="G368" s="2"/>
+      <c r="H368" s="2"/>
+      <c r="I368" s="3"/>
+      <c r="J368" s="2"/>
+      <c r="K368" s="3"/>
+    </row>
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A369" s="1"/>
+      <c r="B369" s="1"/>
+      <c r="C369" s="4"/>
+      <c r="D369" s="4"/>
+      <c r="E369" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F369" s="4"/>
+      <c r="G369" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="H369" s="4"/>
+      <c r="I369" s="5">
+        <v>43733</v>
+      </c>
+      <c r="J369" s="4"/>
+      <c r="K369" s="5">
+        <v>44195</v>
+      </c>
+    </row>
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A370" s="2"/>
+      <c r="B370" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C370" s="2"/>
+      <c r="D370" s="2"/>
+      <c r="E370" s="2"/>
+      <c r="F370" s="2"/>
+      <c r="G370" s="2"/>
+      <c r="H370" s="2"/>
+      <c r="I370" s="3"/>
+      <c r="J370" s="2"/>
+      <c r="K370" s="3"/>
+    </row>
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A371" s="1"/>
+      <c r="B371" s="1"/>
+      <c r="C371" s="4"/>
+      <c r="D371" s="4"/>
+      <c r="E371" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F371" s="4"/>
+      <c r="G371" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="H371" s="4"/>
+      <c r="I371" s="5">
+        <v>43733</v>
+      </c>
+      <c r="J371" s="4"/>
+      <c r="K371" s="5">
+        <v>44195</v>
+      </c>
+    </row>
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A372" s="2"/>
+      <c r="B372" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C372" s="2"/>
+      <c r="D372" s="2"/>
+      <c r="E372" s="2"/>
+      <c r="F372" s="2"/>
+      <c r="G372" s="2"/>
+      <c r="H372" s="2"/>
+      <c r="I372" s="3"/>
+      <c r="J372" s="2"/>
+      <c r="K372" s="3"/>
+    </row>
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A373" s="1"/>
+      <c r="B373" s="1"/>
+      <c r="C373" s="4"/>
+      <c r="D373" s="4"/>
+      <c r="E373" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F373" s="4"/>
+      <c r="G373" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="H373" s="4"/>
+      <c r="I373" s="5">
+        <v>43733</v>
+      </c>
+      <c r="J373" s="4"/>
+      <c r="K373" s="5">
+        <v>44195</v>
+      </c>
+    </row>
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A374" s="2"/>
+      <c r="B374" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C374" s="2"/>
+      <c r="D374" s="2"/>
+      <c r="E374" s="2"/>
+      <c r="F374" s="2"/>
+      <c r="G374" s="2"/>
+      <c r="H374" s="2"/>
+      <c r="I374" s="3"/>
+      <c r="J374" s="2"/>
+      <c r="K374" s="3"/>
+    </row>
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A375" s="1"/>
+      <c r="B375" s="1"/>
+      <c r="C375" s="4"/>
+      <c r="D375" s="4"/>
+      <c r="E375" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F375" s="4"/>
+      <c r="G375" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="H375" s="4"/>
+      <c r="I375" s="5">
+        <v>43733</v>
+      </c>
+      <c r="J375" s="4"/>
+      <c r="K375" s="5">
+        <v>44195</v>
+      </c>
+    </row>
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A376" s="2"/>
+      <c r="B376" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C376" s="2"/>
+      <c r="D376" s="2"/>
+      <c r="E376" s="2"/>
+      <c r="F376" s="2"/>
+      <c r="G376" s="2"/>
+      <c r="H376" s="2"/>
+      <c r="I376" s="3"/>
+      <c r="J376" s="2"/>
+      <c r="K376" s="3"/>
+    </row>
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A377" s="1"/>
+      <c r="B377" s="1"/>
+      <c r="C377" s="4"/>
+      <c r="D377" s="4"/>
+      <c r="E377" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F377" s="4"/>
+      <c r="G377" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="H377" s="4"/>
+      <c r="I377" s="5">
+        <v>43733</v>
+      </c>
+      <c r="J377" s="4"/>
+      <c r="K377" s="5">
+        <v>44195</v>
+      </c>
+    </row>
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A378" s="2"/>
+      <c r="B378" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C378" s="2"/>
+      <c r="D378" s="2"/>
+      <c r="E378" s="2"/>
+      <c r="F378" s="2"/>
+      <c r="G378" s="2"/>
+      <c r="H378" s="2"/>
+      <c r="I378" s="3"/>
+      <c r="J378" s="2"/>
+      <c r="K378" s="3"/>
+    </row>
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A379" s="1"/>
+      <c r="B379" s="1"/>
+      <c r="C379" s="4"/>
+      <c r="D379" s="4"/>
+      <c r="E379" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F379" s="4"/>
+      <c r="G379" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="H379" s="4"/>
+      <c r="I379" s="5">
+        <v>43733</v>
+      </c>
+      <c r="J379" s="4"/>
+      <c r="K379" s="5">
+        <v>44195</v>
+      </c>
+    </row>
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A380" s="2"/>
+      <c r="B380" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C380" s="2"/>
+      <c r="D380" s="2"/>
+      <c r="E380" s="2"/>
+      <c r="F380" s="2"/>
+      <c r="G380" s="2"/>
+      <c r="H380" s="2"/>
+      <c r="I380" s="3"/>
+      <c r="J380" s="2"/>
+      <c r="K380" s="3"/>
+    </row>
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A381" s="1"/>
+      <c r="B381" s="1"/>
+      <c r="C381" s="4"/>
+      <c r="D381" s="4"/>
+      <c r="E381" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F381" s="4"/>
+      <c r="G381" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="H381" s="4"/>
+      <c r="I381" s="5">
+        <v>43733</v>
+      </c>
+      <c r="J381" s="4"/>
+      <c r="K381" s="5">
+        <v>44195</v>
+      </c>
+    </row>
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A382" s="2"/>
+      <c r="B382" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C382" s="2"/>
+      <c r="D382" s="2"/>
+      <c r="E382" s="2"/>
+      <c r="F382" s="2"/>
+      <c r="G382" s="2"/>
+      <c r="H382" s="2"/>
+      <c r="I382" s="3"/>
+      <c r="J382" s="2"/>
+      <c r="K382" s="3"/>
+    </row>
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A383" s="1"/>
+      <c r="B383" s="1"/>
+      <c r="C383" s="4"/>
+      <c r="D383" s="4"/>
+      <c r="E383" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F383" s="4"/>
+      <c r="G383" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="H383" s="4"/>
+      <c r="I383" s="5">
+        <v>43733</v>
+      </c>
+      <c r="J383" s="4"/>
+      <c r="K383" s="5">
         <v>44195</v>
       </c>
     </row>
@@ -5616,11 +7953,11 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.1" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Arial,Bold"&amp;8 10:08 AM
-&amp;"Arial,Bold"&amp;8 10/30/19
+    <oddHeader>&amp;L&amp;"Arial,Bold"&amp;8 11:14 AM
+&amp;"Arial,Bold"&amp;8 11/26/19
 &amp;"Arial,Bold"&amp;8 &amp;C&amp;"Arial,Bold"&amp;12 Terra Verde Supply Corp -Triangulo US
 &amp;"Arial,Bold"&amp;14 Price Rules by Customer
-&amp;"Arial,Bold"&amp;10 October 30, 2019</oddHeader>
+&amp;"Arial,Bold"&amp;10 November 26, 2019</oddHeader>
     <oddFooter>&amp;R&amp;"Arial,Bold"&amp;8 Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
